--- a/JupyterNotebooks/AveragedIntensites/GossF-HW30.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/GossF-HW30.xlsx
@@ -7,14 +7,14 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="GossF-HW30.xpc" sheetId="1" r:id="rId1"/>
+    <sheet name="GossF" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>HKL</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1064,6 +1064,47 @@
         <v>0.9962572583269563</v>
       </c>
     </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16">
+        <v>0.9990556871472746</v>
+      </c>
+      <c r="D16">
+        <v>0.9568473323611687</v>
+      </c>
+      <c r="E16">
+        <v>1.009811656777114</v>
+      </c>
+      <c r="F16">
+        <v>0.9990556871472746</v>
+      </c>
+      <c r="G16">
+        <v>0.9686704768203884</v>
+      </c>
+      <c r="H16">
+        <v>1.038396101144211</v>
+      </c>
+      <c r="I16">
+        <v>1.008068444588058</v>
+      </c>
+      <c r="J16">
+        <v>0.9568473323611687</v>
+      </c>
+      <c r="K16">
+        <v>0.9833294945691415</v>
+      </c>
+      <c r="L16">
+        <v>0.991192590858208</v>
+      </c>
+      <c r="M16">
+        <v>0.9968082831397026</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/JupyterNotebooks/AveragedIntensites/GossF-HW30.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/GossF-HW30.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>HKL</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>HexGrid-60degTilt5degRes</t>
+  </si>
+  <si>
+    <t>Gaussian-Quadrature</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
@@ -498,37 +501,37 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -1069,7 +1072,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C16">
         <v>0.9990556871472746</v>

--- a/JupyterNotebooks/AveragedIntensites/GossF-HW30.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/GossF-HW30.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>HKL</t>
   </si>
@@ -40,6 +40,18 @@
     <t>Ring Perpendicular to TD</t>
   </si>
   <si>
+    <t>Gaussian-Quadrature</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-10rot-5space</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-15rot-5space</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-10rot-3space</t>
+  </si>
+  <si>
     <t>NoRotation-tilt60deg</t>
   </si>
   <si>
@@ -56,9 +68,6 @@
   </si>
   <si>
     <t>HexGrid-60degTilt5degRes</t>
-  </si>
-  <si>
-    <t>Gaussian-Quadrature</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
@@ -449,7 +458,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -501,37 +510,37 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -829,37 +838,37 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.007764000000001</v>
+        <v>0.9990556871472746</v>
       </c>
       <c r="D10">
-        <v>1.070868</v>
+        <v>0.9568473323611687</v>
       </c>
       <c r="E10">
-        <v>0.9579519999999989</v>
+        <v>1.009811656777114</v>
       </c>
       <c r="F10">
-        <v>1.007764000000001</v>
+        <v>0.9990556871472746</v>
       </c>
       <c r="G10">
-        <v>1.044072</v>
+        <v>0.9686704768203884</v>
       </c>
       <c r="H10">
-        <v>0.8900959999999988</v>
+        <v>1.038396101144211</v>
       </c>
       <c r="I10">
-        <v>0.9731719999999981</v>
+        <v>1.008068444588058</v>
       </c>
       <c r="J10">
-        <v>1.070868</v>
+        <v>0.9568473323611687</v>
       </c>
       <c r="K10">
-        <v>1.01441</v>
+        <v>0.9833294945691415</v>
       </c>
       <c r="L10">
-        <v>1.011087</v>
+        <v>0.991192590858208</v>
       </c>
       <c r="M10">
-        <v>0.9906539999999994</v>
+        <v>0.9968082831397026</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -870,37 +879,37 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.11</v>
+        <v>0.9307027969858641</v>
       </c>
       <c r="D11">
-        <v>0.76</v>
+        <v>1.303916321476776</v>
       </c>
       <c r="E11">
-        <v>1.023325000000002</v>
+        <v>0.913226274997322</v>
       </c>
       <c r="F11">
-        <v>1.11</v>
+        <v>0.9307027969858641</v>
       </c>
       <c r="G11">
-        <v>0.88</v>
+        <v>1.16532510302329</v>
       </c>
       <c r="H11">
-        <v>1.05</v>
+        <v>0.7736688538060419</v>
       </c>
       <c r="I11">
-        <v>1.05</v>
+        <v>0.9164217406461607</v>
       </c>
       <c r="J11">
-        <v>0.76</v>
+        <v>1.303916321476776</v>
       </c>
       <c r="K11">
-        <v>0.8916625000000009</v>
+        <v>1.108571298237049</v>
       </c>
       <c r="L11">
-        <v>1.000831250000001</v>
+        <v>1.019637047611456</v>
       </c>
       <c r="M11">
-        <v>0.9788875000000002</v>
+        <v>1.000543515155909</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -911,37 +920,37 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.062348833792</v>
+        <v>0.9302468709536855</v>
       </c>
       <c r="D12">
-        <v>0.858053076377601</v>
+        <v>1.305311981312687</v>
       </c>
       <c r="E12">
-        <v>1.011931220582399</v>
+        <v>0.912915563974888</v>
       </c>
       <c r="F12">
-        <v>1.062348833792</v>
+        <v>0.9302468709536855</v>
       </c>
       <c r="G12">
-        <v>0.9286418378751998</v>
+        <v>1.166061317612358</v>
       </c>
       <c r="H12">
-        <v>1.0278922395648</v>
+        <v>0.7729313415068712</v>
       </c>
       <c r="I12">
-        <v>1.026796205670399</v>
+        <v>0.916089629958706</v>
       </c>
       <c r="J12">
-        <v>0.858053076377601</v>
+        <v>1.305311981312687</v>
       </c>
       <c r="K12">
-        <v>0.9349921484799999</v>
+        <v>1.109113772643788</v>
       </c>
       <c r="L12">
-        <v>0.998670491136</v>
+        <v>1.019680321798737</v>
       </c>
       <c r="M12">
-        <v>0.9859439023103999</v>
+        <v>1.000592784219866</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -952,37 +961,37 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9954954706970016</v>
+        <v>0.9306547013103774</v>
       </c>
       <c r="D13">
-        <v>0.9953554290253483</v>
+        <v>1.304129990706679</v>
       </c>
       <c r="E13">
-        <v>0.9954307713243284</v>
+        <v>0.9131621906631909</v>
       </c>
       <c r="F13">
-        <v>0.9954954706970016</v>
+        <v>0.9306547013103774</v>
       </c>
       <c r="G13">
-        <v>0.9952133550370761</v>
+        <v>1.165456013355459</v>
       </c>
       <c r="H13">
-        <v>0.9954841681819239</v>
+        <v>0.7735119461771636</v>
       </c>
       <c r="I13">
-        <v>0.9955517101109677</v>
+        <v>0.9163489234710389</v>
       </c>
       <c r="J13">
-        <v>0.9953554290253483</v>
+        <v>1.304129990706679</v>
       </c>
       <c r="K13">
-        <v>0.9953931001748384</v>
+        <v>1.108646090684935</v>
       </c>
       <c r="L13">
-        <v>0.99544428543592</v>
+        <v>1.019650395997656</v>
       </c>
       <c r="M13">
-        <v>0.9954218173961076</v>
+        <v>1.000543960947318</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -993,37 +1002,37 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9930793142625063</v>
+        <v>1.007764000000001</v>
       </c>
       <c r="D14">
-        <v>1.003742022620346</v>
+        <v>1.070868</v>
       </c>
       <c r="E14">
-        <v>0.9937771487372318</v>
+        <v>0.9579519999999989</v>
       </c>
       <c r="F14">
-        <v>0.9930793142625063</v>
+        <v>1.007764000000001</v>
       </c>
       <c r="G14">
-        <v>1.000030268885514</v>
+        <v>1.044072</v>
       </c>
       <c r="H14">
-        <v>0.9928757061572363</v>
+        <v>0.8900959999999988</v>
       </c>
       <c r="I14">
-        <v>0.9930979672522963</v>
+        <v>0.9731719999999981</v>
       </c>
       <c r="J14">
-        <v>1.003742022620346</v>
+        <v>1.070868</v>
       </c>
       <c r="K14">
-        <v>0.998759585678789</v>
+        <v>1.01441</v>
       </c>
       <c r="L14">
-        <v>0.9959194499706476</v>
+        <v>1.011087</v>
       </c>
       <c r="M14">
-        <v>0.9961004046525219</v>
+        <v>0.9906539999999994</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1034,37 +1043,37 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9899634186265653</v>
+        <v>1.11</v>
       </c>
       <c r="D15">
-        <v>1.017094200222554</v>
+        <v>0.76</v>
       </c>
       <c r="E15">
-        <v>0.9906647134994233</v>
+        <v>1.023325000000002</v>
       </c>
       <c r="F15">
-        <v>0.9899634186265653</v>
+        <v>1.11</v>
       </c>
       <c r="G15">
-        <v>1.00794593767014</v>
+        <v>0.88</v>
       </c>
       <c r="H15">
-        <v>0.9821302494082897</v>
+        <v>1.05</v>
       </c>
       <c r="I15">
-        <v>0.9897450305347656</v>
+        <v>1.05</v>
       </c>
       <c r="J15">
-        <v>1.017094200222554</v>
+        <v>0.76</v>
       </c>
       <c r="K15">
-        <v>1.003879456860989</v>
+        <v>0.8916625000000009</v>
       </c>
       <c r="L15">
-        <v>0.996921437743777</v>
+        <v>1.000831250000001</v>
       </c>
       <c r="M15">
-        <v>0.9962572583269563</v>
+        <v>0.9788875000000002</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1075,37 +1084,160 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9990556871472746</v>
+        <v>1.062348833792</v>
       </c>
       <c r="D16">
-        <v>0.9568473323611687</v>
+        <v>0.858053076377601</v>
       </c>
       <c r="E16">
-        <v>1.009811656777114</v>
+        <v>1.011931220582399</v>
       </c>
       <c r="F16">
-        <v>0.9990556871472746</v>
+        <v>1.062348833792</v>
       </c>
       <c r="G16">
-        <v>0.9686704768203884</v>
+        <v>0.9286418378751998</v>
       </c>
       <c r="H16">
-        <v>1.038396101144211</v>
+        <v>1.0278922395648</v>
       </c>
       <c r="I16">
-        <v>1.008068444588058</v>
+        <v>1.026796205670399</v>
       </c>
       <c r="J16">
-        <v>0.9568473323611687</v>
+        <v>0.858053076377601</v>
       </c>
       <c r="K16">
-        <v>0.9833294945691415</v>
+        <v>0.9349921484799999</v>
       </c>
       <c r="L16">
-        <v>0.991192590858208</v>
+        <v>0.998670491136</v>
       </c>
       <c r="M16">
-        <v>0.9968082831397026</v>
+        <v>0.9859439023103999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <v>0.9954954706970016</v>
+      </c>
+      <c r="D17">
+        <v>0.9953554290253483</v>
+      </c>
+      <c r="E17">
+        <v>0.9954307713243284</v>
+      </c>
+      <c r="F17">
+        <v>0.9954954706970016</v>
+      </c>
+      <c r="G17">
+        <v>0.9952133550370761</v>
+      </c>
+      <c r="H17">
+        <v>0.9954841681819239</v>
+      </c>
+      <c r="I17">
+        <v>0.9955517101109677</v>
+      </c>
+      <c r="J17">
+        <v>0.9953554290253483</v>
+      </c>
+      <c r="K17">
+        <v>0.9953931001748384</v>
+      </c>
+      <c r="L17">
+        <v>0.99544428543592</v>
+      </c>
+      <c r="M17">
+        <v>0.9954218173961076</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18">
+        <v>0.9930793142625063</v>
+      </c>
+      <c r="D18">
+        <v>1.003742022620346</v>
+      </c>
+      <c r="E18">
+        <v>0.9937771487372318</v>
+      </c>
+      <c r="F18">
+        <v>0.9930793142625063</v>
+      </c>
+      <c r="G18">
+        <v>1.000030268885514</v>
+      </c>
+      <c r="H18">
+        <v>0.9928757061572363</v>
+      </c>
+      <c r="I18">
+        <v>0.9930979672522963</v>
+      </c>
+      <c r="J18">
+        <v>1.003742022620346</v>
+      </c>
+      <c r="K18">
+        <v>0.998759585678789</v>
+      </c>
+      <c r="L18">
+        <v>0.9959194499706476</v>
+      </c>
+      <c r="M18">
+        <v>0.9961004046525219</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19">
+        <v>0.9899634186265653</v>
+      </c>
+      <c r="D19">
+        <v>1.017094200222554</v>
+      </c>
+      <c r="E19">
+        <v>0.9906647134994233</v>
+      </c>
+      <c r="F19">
+        <v>0.9899634186265653</v>
+      </c>
+      <c r="G19">
+        <v>1.00794593767014</v>
+      </c>
+      <c r="H19">
+        <v>0.9821302494082897</v>
+      </c>
+      <c r="I19">
+        <v>0.9897450305347656</v>
+      </c>
+      <c r="J19">
+        <v>1.017094200222554</v>
+      </c>
+      <c r="K19">
+        <v>1.003879456860989</v>
+      </c>
+      <c r="L19">
+        <v>0.996921437743777</v>
+      </c>
+      <c r="M19">
+        <v>0.9962572583269563</v>
       </c>
     </row>
   </sheetData>
